--- a/Final stocks company names.xlsx
+++ b/Final stocks company names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/e0023491_u_nus_edu/Documents/A_LSP_PhD/Yr2Sm1/DSA5205/Project/groupRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{809DA0FA-2772-4AB3-A0EB-85DD688EDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{809DA0FA-2772-4AB3-A0EB-85DD688EDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A97830D3-E57D-4D95-ACED-1463719D9646}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{4EB8C0B6-9C11-44B3-B761-EF04532A2AFD}"/>
   </bookViews>
@@ -492,85 +492,88 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>